--- a/extrato_consolidado.xlsx
+++ b/extrato_consolidado.xlsx
@@ -8,8 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Log_Execucao" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1234-11111-1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="5678-22222-2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="452-123873" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -460,66 +459,66 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>551</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11111-1</t>
+          <t>5087</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>FALHA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Processado com sucesso</t>
+          <t>Erro HTTP 500: {"erros": [{"codigo": "5738730","versao": "1","mensagem": "Erro Interno do Servidor","ocorrencia": "000000000000000000042948"}]}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5678</t>
+          <t>1505</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>22222-2</t>
+          <t>1348</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>FALHA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Processado com sucesso</t>
+          <t>Erro HTTP 500: {"erros": [{"codigo": "5738730","versao": "1","mensagem": "Erro Interno do Servidor","ocorrencia": "000000000000000000337419"}]}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>9012</t>
+          <t>452</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>33333-3</t>
+          <t>123873</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FALHA</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Erro 404: Conta não localizada na base do banco.</t>
+          <t>Processado com sucesso</t>
         </is>
       </c>
     </row>
@@ -534,7 +533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,163 +564,2290 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>15/11/2023</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1001</t>
-        </is>
+      <c r="A2" t="n">
+        <v>31102025</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>150</v>
+        <v>27692.95</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PIX RECEBIDO</t>
+          <t>SALDO ANTERIOR</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>16/11/2023</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1002</t>
-        </is>
+      <c r="A3" t="n">
+        <v>3112025</v>
+      </c>
+      <c r="B3" t="n">
+        <v>399847730</v>
       </c>
       <c r="C3" t="n">
-        <v>-50</v>
+        <v>35265.9</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PGTO BOLETO</t>
+          <t>Crédito BACEN</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>17/11/2023</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1003</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3112025</v>
+      </c>
+      <c r="B4" t="n">
+        <v>30320012512361</v>
       </c>
       <c r="C4" t="n">
-        <v>-20</v>
+        <v>4658.5</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TAR BANCARIA</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>dataLancamento</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>numeroDocumento</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>valorLancamento</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>textoDescricaoHistorico</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>15/11/2023</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1001</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>PIX RECEBIDO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>16/11/2023</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1002</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>-50</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>PGTO BOLETO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>17/11/2023</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1003</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>-20</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>TAR BANCARIA</t>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3112025</v>
+      </c>
+      <c r="B5" t="n">
+        <v>45218375000315</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5803.68</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Diário</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3112025</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>61813.67</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Saldo do dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4112025</v>
+      </c>
+      <c r="B7" t="n">
+        <v>113081000003133</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1136.2</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>BBCPR Não Cumprida</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4112025</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1005568017027</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>APLIC BB EMPRESARIAL 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4112025</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1005568017027</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>APLIC BB EMPRESARIAL 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4112025</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>62946.33</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Saldo do dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5112025</v>
+      </c>
+      <c r="B11" t="n">
+        <v>51529125850231</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5112025</v>
+      </c>
+      <c r="B12" t="n">
+        <v>110501</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3027.54</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Pagamento Cheque TB</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5112025</v>
+      </c>
+      <c r="B13" t="n">
+        <v>110502</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1086.08</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Pagamento Cheque TB</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5112025</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>58842.71</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Saldo do dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>6112025</v>
+      </c>
+      <c r="B15" t="n">
+        <v>34291958</v>
+      </c>
+      <c r="C15" t="n">
+        <v>30063.15</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Crédito BACEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>6112025</v>
+      </c>
+      <c r="B16" t="n">
+        <v>61256271691832</v>
+      </c>
+      <c r="C16" t="n">
+        <v>30908.36</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>6112025</v>
+      </c>
+      <c r="B17" t="n">
+        <v>113101000003264</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5352.97</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>BBCPR Não Cumprida</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>6112025</v>
+      </c>
+      <c r="B18" t="n">
+        <v>19371</v>
+      </c>
+      <c r="C18" t="n">
+        <v>26845.21</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Aplicação em CDB/RDB</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>6112025</v>
+      </c>
+      <c r="B19" t="n">
+        <v>19372</v>
+      </c>
+      <c r="C19" t="n">
+        <v>30866.13</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Aplicação em CDB/RDB</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>6112025</v>
+      </c>
+      <c r="B20" t="n">
+        <v>19373</v>
+      </c>
+      <c r="C20" t="n">
+        <v>31062.49</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Aplicação em CDB/RDB</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6112025</v>
+      </c>
+      <c r="B21" t="n">
+        <v>110601</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1177.34</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Pagamento Cheque TB</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>6112025</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1005568017027</v>
+      </c>
+      <c r="C22" t="n">
+        <v>15</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>APLIC BB EMPRESARIAL 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>6112025</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>35201.02</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Saldo do dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>7112025</v>
+      </c>
+      <c r="B24" t="n">
+        <v>70415034700451</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6914.6</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>7112025</v>
+      </c>
+      <c r="B25" t="n">
+        <v>70415260294071</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5192</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>7112025</v>
+      </c>
+      <c r="B26" t="n">
+        <v>113111000001850</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1473.92</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>BBCPR Não Cumprida</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>7112025</v>
+      </c>
+      <c r="B27" t="n">
+        <v>10809</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3184.71</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Aplicação em CDB/RDB</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>7112025</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1005568017027</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>APLIC BB EMPRESARIAL 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>7112025</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>45593.83</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Saldo do dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>10112025</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5811587000000</v>
+      </c>
+      <c r="C30" t="n">
+        <v>6413.97</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>CREDITOS DO GOV. MS</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>10112025</v>
+      </c>
+      <c r="B31" t="n">
+        <v>113141000003677</v>
+      </c>
+      <c r="C31" t="n">
+        <v>796.96</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>BBCPR Não Cumprida</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>10112025</v>
+      </c>
+      <c r="B32" t="n">
+        <v>111001</v>
+      </c>
+      <c r="C32" t="n">
+        <v>360</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Pagamento Cheque TB</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>10112025</v>
+      </c>
+      <c r="B33" t="n">
+        <v>111002</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3250</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Pagamento Cheque TB</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>10112025</v>
+      </c>
+      <c r="B34" t="n">
+        <v>111003</v>
+      </c>
+      <c r="C34" t="n">
+        <v>7000</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Pagamento Cheque TB</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>10112025</v>
+      </c>
+      <c r="B35" t="n">
+        <v>111004</v>
+      </c>
+      <c r="C35" t="n">
+        <v>103.03</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>10112025</v>
+      </c>
+      <c r="B36" t="n">
+        <v>111005</v>
+      </c>
+      <c r="C36" t="n">
+        <v>12500</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>10112025</v>
+      </c>
+      <c r="B37" t="n">
+        <v>31</v>
+      </c>
+      <c r="C37" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Tarif.processam.depósito</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>10112025</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1005568017027</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>APLIC BB EMPRESARIAL 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>10112025</v>
+      </c>
+      <c r="B39" t="n">
+        <v>833141102982263</v>
+      </c>
+      <c r="C39" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Emissão de DOC</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>10112025</v>
+      </c>
+      <c r="B40" t="n">
+        <v>102863411</v>
+      </c>
+      <c r="C40" t="n">
+        <v>24261.82</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Aplicação em BB CDB DI</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10112025</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>5079.11</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Saldo do dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>11112025</v>
+      </c>
+      <c r="B42" t="n">
+        <v>111856310739681</v>
+      </c>
+      <c r="C42" t="n">
+        <v>494.42</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>11112025</v>
+      </c>
+      <c r="B43" t="n">
+        <v>113151000001783</v>
+      </c>
+      <c r="C43" t="n">
+        <v>34101.49</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>BBCPR Não Cumprida</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>11112025</v>
+      </c>
+      <c r="B44" t="n">
+        <v>111101</v>
+      </c>
+      <c r="C44" t="n">
+        <v>583.63</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>11112025</v>
+      </c>
+      <c r="B45" t="n">
+        <v>111102</v>
+      </c>
+      <c r="C45" t="n">
+        <v>449.03</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>11112025</v>
+      </c>
+      <c r="B46" t="n">
+        <v>111103</v>
+      </c>
+      <c r="C46" t="n">
+        <v>103.03</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>11112025</v>
+      </c>
+      <c r="B47" t="n">
+        <v>111104</v>
+      </c>
+      <c r="C47" t="n">
+        <v>103.03</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>11112025</v>
+      </c>
+      <c r="B48" t="n">
+        <v>111105</v>
+      </c>
+      <c r="C48" t="n">
+        <v>103.03</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>11112025</v>
+      </c>
+      <c r="B49" t="n">
+        <v>111106</v>
+      </c>
+      <c r="C49" t="n">
+        <v>103.03</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>11112025</v>
+      </c>
+      <c r="B50" t="n">
+        <v>111107</v>
+      </c>
+      <c r="C50" t="n">
+        <v>103.03</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>11112025</v>
+      </c>
+      <c r="B51" t="n">
+        <v>111108</v>
+      </c>
+      <c r="C51" t="n">
+        <v>103.03</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>11112025</v>
+      </c>
+      <c r="B52" t="n">
+        <v>111109</v>
+      </c>
+      <c r="C52" t="n">
+        <v>103.03</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>11112025</v>
+      </c>
+      <c r="B53" t="n">
+        <v>111110</v>
+      </c>
+      <c r="C53" t="n">
+        <v>103.03</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>11112025</v>
+      </c>
+      <c r="B54" t="n">
+        <v>111111</v>
+      </c>
+      <c r="C54" t="n">
+        <v>103.03</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>11112025</v>
+      </c>
+      <c r="B55" t="n">
+        <v>111112</v>
+      </c>
+      <c r="C55" t="n">
+        <v>103.03</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>11112025</v>
+      </c>
+      <c r="B56" t="n">
+        <v>111113</v>
+      </c>
+      <c r="C56" t="n">
+        <v>103.03</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>11112025</v>
+      </c>
+      <c r="B57" t="n">
+        <v>111114</v>
+      </c>
+      <c r="C57" t="n">
+        <v>103.03</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>11112025</v>
+      </c>
+      <c r="B58" t="n">
+        <v>111115</v>
+      </c>
+      <c r="C58" t="n">
+        <v>103.03</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>11112025</v>
+      </c>
+      <c r="B59" t="n">
+        <v>111116</v>
+      </c>
+      <c r="C59" t="n">
+        <v>103.03</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>11112025</v>
+      </c>
+      <c r="B60" t="n">
+        <v>111117</v>
+      </c>
+      <c r="C60" t="n">
+        <v>103.03</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>11112025</v>
+      </c>
+      <c r="B61" t="n">
+        <v>111118</v>
+      </c>
+      <c r="C61" t="n">
+        <v>103.03</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>11112025</v>
+      </c>
+      <c r="B62" t="n">
+        <v>111119</v>
+      </c>
+      <c r="C62" t="n">
+        <v>103.03</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>11112025</v>
+      </c>
+      <c r="B63" t="n">
+        <v>111120</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1180</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>11112025</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1005568017027</v>
+      </c>
+      <c r="C64" t="n">
+        <v>3</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>APLIC BB EMPRESARIAL 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>11112025</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1005568017027</v>
+      </c>
+      <c r="C65" t="n">
+        <v>18</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>APLIC BB EMPRESARIAL 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>11112025</v>
+      </c>
+      <c r="B66" t="n">
+        <v>16551</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1412.65</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>DRIVERS CARD</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>11112025</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>34277.2</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Saldo do dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>12112025</v>
+      </c>
+      <c r="B68" t="n">
+        <v>33395809</v>
+      </c>
+      <c r="C68" t="n">
+        <v>4128.91</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Crédito BACEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>12112025</v>
+      </c>
+      <c r="B69" t="n">
+        <v>33564279</v>
+      </c>
+      <c r="C69" t="n">
+        <v>421.81</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Crédito BACEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>12112025</v>
+      </c>
+      <c r="B70" t="n">
+        <v>5888039000000</v>
+      </c>
+      <c r="C70" t="n">
+        <v>357.81</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>CREDITOS DO GOV. MS</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>12112025</v>
+      </c>
+      <c r="B71" t="n">
+        <v>113161000001973</v>
+      </c>
+      <c r="C71" t="n">
+        <v>5776.47</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>BBCPR Não Cumprida</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>12112025</v>
+      </c>
+      <c r="B72" t="n">
+        <v>121600383555452</v>
+      </c>
+      <c r="C72" t="n">
+        <v>190</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>12112025</v>
+      </c>
+      <c r="B73" t="n">
+        <v>111201</v>
+      </c>
+      <c r="C73" t="n">
+        <v>201.88</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>12112025</v>
+      </c>
+      <c r="B74" t="n">
+        <v>111202</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1203.38</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>12112025</v>
+      </c>
+      <c r="B75" t="n">
+        <v>111203</v>
+      </c>
+      <c r="C75" t="n">
+        <v>21766.33</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>12112025</v>
+      </c>
+      <c r="B76" t="n">
+        <v>111204</v>
+      </c>
+      <c r="C76" t="n">
+        <v>8526.58</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>TRS ANTECIP E ESTORNAD</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>12112025</v>
+      </c>
+      <c r="B77" t="n">
+        <v>111205</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>TRS ANTECIP E ESTORNAD</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>12112025</v>
+      </c>
+      <c r="B78" t="n">
+        <v>111206</v>
+      </c>
+      <c r="C78" t="n">
+        <v>103.03</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>12112025</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1005568017027</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>APLIC BB EMPRESARIAL 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>12112025</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>12149.5</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Saldo do dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>13112025</v>
+      </c>
+      <c r="B81" t="n">
+        <v>113171000001891</v>
+      </c>
+      <c r="C81" t="n">
+        <v>15993.53</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>BBCPR Não Cumprida</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>13112025</v>
+      </c>
+      <c r="B82" t="n">
+        <v>111301</v>
+      </c>
+      <c r="C82" t="n">
+        <v>242.93</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Tarifa Adiant Depositante</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>13112025</v>
+      </c>
+      <c r="B83" t="n">
+        <v>111302</v>
+      </c>
+      <c r="C83" t="n">
+        <v>851.6799999999999</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>13112025</v>
+      </c>
+      <c r="B84" t="n">
+        <v>111303</v>
+      </c>
+      <c r="C84" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Pagamento Cheque TB</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>13112025</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1005568017027</v>
+      </c>
+      <c r="C85" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>APLIC BB EMPRESARIAL 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>13112025</v>
+      </c>
+      <c r="B86" t="n">
+        <v>12695</v>
+      </c>
+      <c r="C86" t="n">
+        <v>248.16</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Pgto conta água</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>13112025</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>26744.56</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Saldo do dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>14112025</v>
+      </c>
+      <c r="B88" t="n">
+        <v>111401</v>
+      </c>
+      <c r="C88" t="n">
+        <v>5589.81</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>14112025</v>
+      </c>
+      <c r="B89" t="n">
+        <v>111402</v>
+      </c>
+      <c r="C89" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Pagamento Cheque TB</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>14112025</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1005568017027</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>APLIC BB EMPRESARIAL 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>14112025</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>15152.05</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Saldo do dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>17112025</v>
+      </c>
+      <c r="B92" t="n">
+        <v>113211000001797</v>
+      </c>
+      <c r="C92" t="n">
+        <v>7368.83</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>BBCPR Não Cumprida</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>17112025</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1005568017027</v>
+      </c>
+      <c r="C93" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>APLIC BB EMPRESARIAL 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>17112025</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>22510.38</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Saldo do dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>18112025</v>
+      </c>
+      <c r="B95" t="n">
+        <v>5995126000000</v>
+      </c>
+      <c r="C95" t="n">
+        <v>316.25</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>CREDITOS DO GOV. MS</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>18112025</v>
+      </c>
+      <c r="B96" t="n">
+        <v>113221000003257</v>
+      </c>
+      <c r="C96" t="n">
+        <v>5192.59</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>BBCPR Não Cumprida</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>18112025</v>
+      </c>
+      <c r="B97" t="n">
+        <v>111801</v>
+      </c>
+      <c r="C97" t="n">
+        <v>165</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>18112025</v>
+      </c>
+      <c r="B98" t="n">
+        <v>111802</v>
+      </c>
+      <c r="C98" t="n">
+        <v>220.39</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>18112025</v>
+      </c>
+      <c r="B99" t="n">
+        <v>111803</v>
+      </c>
+      <c r="C99" t="n">
+        <v>375</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>18112025</v>
+      </c>
+      <c r="B100" t="n">
+        <v>111804</v>
+      </c>
+      <c r="C100" t="n">
+        <v>390</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>18112025</v>
+      </c>
+      <c r="B101" t="n">
+        <v>111805</v>
+      </c>
+      <c r="C101" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>18112025</v>
+      </c>
+      <c r="B102" t="n">
+        <v>111806</v>
+      </c>
+      <c r="C102" t="n">
+        <v>650</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>18112025</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1005568017027</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>APLIC BB EMPRESARIAL 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>18112025</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1005568017027</v>
+      </c>
+      <c r="C104" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>APLIC BB EMPRESARIAL 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>18112025</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>26049.93</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Saldo do dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>19112025</v>
+      </c>
+      <c r="B106" t="n">
+        <v>254103</v>
+      </c>
+      <c r="C106" t="n">
+        <v>4248.89</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Resgate Fundo Private</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>19112025</v>
+      </c>
+      <c r="B107" t="n">
+        <v>6028133000000</v>
+      </c>
+      <c r="C107" t="n">
+        <v>297.19</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>CREDITOS DO GOV. MS</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>19112025</v>
+      </c>
+      <c r="B108" t="n">
+        <v>6051071000000</v>
+      </c>
+      <c r="C108" t="n">
+        <v>188.83</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>CREDITOS DO GOV. MS</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>19112025</v>
+      </c>
+      <c r="B109" t="n">
+        <v>113231000003252</v>
+      </c>
+      <c r="C109" t="n">
+        <v>776.9299999999999</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>BBCPR Não Cumprida</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>19112025</v>
+      </c>
+      <c r="B110" t="n">
+        <v>550452000049539</v>
+      </c>
+      <c r="C110" t="n">
+        <v>27000</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Débito Autorizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>19112025</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1005568017027</v>
+      </c>
+      <c r="C111" t="n">
+        <v>9</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>APLIC BB EMPRESARIAL 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>19112025</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>4552.77</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Saldo do dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>21112025</v>
+      </c>
+      <c r="B113" t="n">
+        <v>550452000049539</v>
+      </c>
+      <c r="C113" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Seguro Penhor Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>21112025</v>
+      </c>
+      <c r="B114" t="n">
+        <v>6065208000000</v>
+      </c>
+      <c r="C114" t="n">
+        <v>26.27</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>CREDITOS DO GOV. MS</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>21112025</v>
+      </c>
+      <c r="B115" t="n">
+        <v>6065209000000</v>
+      </c>
+      <c r="C115" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>CREDITOS DO GOV. MS</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>21112025</v>
+      </c>
+      <c r="B116" t="n">
+        <v>45215916000432</v>
+      </c>
+      <c r="C116" t="n">
+        <v>5591.35</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>CLUBE DE COMPRAS 0800</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>21112025</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>8999.99</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Saldo do dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>24112025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>113281000000059</v>
+      </c>
+      <c r="C118" t="n">
+        <v>10449.31</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Cobrança com Registro</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>24112025</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1005568017027</v>
+      </c>
+      <c r="C119" t="n">
+        <v>6</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Tarifa Liquid CBR Com Reg</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>24112025</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>19443.3</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Saldo do dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>25112025</v>
+      </c>
+      <c r="B121" t="n">
+        <v>113291000000021</v>
+      </c>
+      <c r="C121" t="n">
+        <v>43216.67</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Cobrança</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>25112025</v>
+      </c>
+      <c r="B122" t="n">
+        <v>113291100000014</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1522.5</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Cobrança com Registro</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>25112025</v>
+      </c>
+      <c r="B123" t="n">
+        <v>45220216000140</v>
+      </c>
+      <c r="C123" t="n">
+        <v>6692.6</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Cap Giro Dig Amortização</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>25112025</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1005568017027</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Tarifa Liquid CBR Com Reg</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>25112025</v>
+      </c>
+      <c r="B125" t="n">
+        <v>16551</v>
+      </c>
+      <c r="C125" t="n">
+        <v>355.17</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Seg Créd Proteg Empresa</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>25112025</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>57133.2</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Saldo do dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>26112025</v>
+      </c>
+      <c r="B127" t="n">
+        <v>113301000000023</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2620.25</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Cobrança</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>26112025</v>
+      </c>
+      <c r="B128" t="n">
+        <v>113301100000031</v>
+      </c>
+      <c r="C128" t="n">
+        <v>162.92</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Cobrança com Registro</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>26112025</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1005568017027</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Tarifa Liquid CBR Com Reg</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>26112025</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>59914.87</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Saldo do dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>27112025</v>
+      </c>
+      <c r="B131" t="n">
+        <v>113311000000025</v>
+      </c>
+      <c r="C131" t="n">
+        <v>716</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Cobrança</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>27112025</v>
+      </c>
+      <c r="B132" t="n">
+        <v>113311100000033</v>
+      </c>
+      <c r="C132" t="n">
+        <v>14330.99</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Cobrança com Registro</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>27112025</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1005568017027</v>
+      </c>
+      <c r="C133" t="n">
+        <v>9</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Tarifa Liquid CBR Com Reg</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>27112025</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>74952.86</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Saldo do dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>28112025</v>
+      </c>
+      <c r="B135" t="n">
+        <v>113321000000028</v>
+      </c>
+      <c r="C135" t="n">
+        <v>742417.4</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Cobrança</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>28112025</v>
+      </c>
+      <c r="B136" t="n">
+        <v>113321100000018</v>
+      </c>
+      <c r="C136" t="n">
+        <v>4003.48</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Cobrança com Registro</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>28112025</v>
+      </c>
+      <c r="B137" t="n">
+        <v>26116</v>
+      </c>
+      <c r="C137" t="n">
+        <v>12572.05</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>28112025</v>
+      </c>
+      <c r="B138" t="n">
+        <v>26117</v>
+      </c>
+      <c r="C138" t="n">
+        <v>14417.96</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>28112025</v>
+      </c>
+      <c r="B139" t="n">
+        <v>26118</v>
+      </c>
+      <c r="C139" t="n">
+        <v>17049.87</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>28112025</v>
+      </c>
+      <c r="B140" t="n">
+        <v>45219528000304</v>
+      </c>
+      <c r="C140" t="n">
+        <v>24075.56</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Cap Giro Dig Amortização</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>28112025</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0</v>
+      </c>
+      <c r="C141" t="n">
+        <v>753258.3</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Saldo do dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>1122025</v>
+      </c>
+      <c r="B142" t="n">
+        <v>151000002</v>
+      </c>
+      <c r="C142" t="n">
+        <v>31588.65</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Cobrança</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1122025</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0</v>
+      </c>
+      <c r="C143" t="n">
+        <v>784846.95</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>S A L D O</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1122025</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0</v>
+      </c>
+      <c r="C144" t="n">
+        <v>8669284.390000001</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>TARIFA SER</t>
         </is>
       </c>
     </row>

--- a/extrato_consolidado.xlsx
+++ b/extrato_consolidado.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Log_Execucao" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="452-123873" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="551-5087" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="452-123873" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -469,12 +470,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>FALHA</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Erro HTTP 500: {"erros": [{"codigo": "5738730","versao": "1","mensagem": "Erro Interno do Servidor","ocorrencia": "000000000000000000042948"}]}</t>
+          <t>Processado com sucesso</t>
         </is>
       </c>
     </row>
@@ -496,7 +497,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Erro HTTP 500: {"erros": [{"codigo": "5738730","versao": "1","mensagem": "Erro Interno do Servidor","ocorrencia": "000000000000000000337419"}]}</t>
+          <t>Erro HTTP 500: {"erros": [{"codigo": "5738730","versao": "1","mensagem": "Erro Interno do Servidor","ocorrencia": "000000000000000000042995"}]}</t>
         </is>
       </c>
     </row>
@@ -528,6 +529,3719 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D213"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>dataLancamento</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>numeroDocumento</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>valorLancamento</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>textoDescricaoHistorico</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>31/10/2025</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SALDO ANTERIOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3112025</v>
+      </c>
+      <c r="B3" t="n">
+        <v>34715121</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1162.56</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Crédito BACEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3112025</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2025001421978</v>
+      </c>
+      <c r="C4" t="n">
+        <v>66.31999999999999</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Resgate BB Renda Fixa DI</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3112025</v>
+      </c>
+      <c r="B5" t="n">
+        <v>11204418198392</v>
+      </c>
+      <c r="C5" t="n">
+        <v>228</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3112025</v>
+      </c>
+      <c r="B6" t="n">
+        <v>31006501495851</v>
+      </c>
+      <c r="C6" t="n">
+        <v>148</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3112025</v>
+      </c>
+      <c r="B7" t="n">
+        <v>31140241742712</v>
+      </c>
+      <c r="C7" t="n">
+        <v>128</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3112025</v>
+      </c>
+      <c r="B8" t="n">
+        <v>31142334857472</v>
+      </c>
+      <c r="C8" t="n">
+        <v>110</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3112025</v>
+      </c>
+      <c r="B9" t="n">
+        <v>31908020732762</v>
+      </c>
+      <c r="C9" t="n">
+        <v>188</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3112025</v>
+      </c>
+      <c r="B10" t="n">
+        <v>113071000002221</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2949.99</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>BBCPR Não Cumprida</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3112025</v>
+      </c>
+      <c r="B11" t="n">
+        <v>175175</v>
+      </c>
+      <c r="C11" t="n">
+        <v>57</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Sindicato</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3112025</v>
+      </c>
+      <c r="B12" t="n">
+        <v>257772</v>
+      </c>
+      <c r="C12" t="n">
+        <v>26</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Sindicato</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3112025</v>
+      </c>
+      <c r="B13" t="n">
+        <v>21256020926175</v>
+      </c>
+      <c r="C13" t="n">
+        <v>200</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3112025</v>
+      </c>
+      <c r="B14" t="n">
+        <v>223283000037190</v>
+      </c>
+      <c r="C14" t="n">
+        <v>352.4</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Débito Autorizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3112025</v>
+      </c>
+      <c r="B15" t="n">
+        <v>110301</v>
+      </c>
+      <c r="C15" t="n">
+        <v>45</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Pagamento Cheque TB</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3112025</v>
+      </c>
+      <c r="B16" t="n">
+        <v>110302</v>
+      </c>
+      <c r="C16" t="n">
+        <v>870</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3112025</v>
+      </c>
+      <c r="B17" t="n">
+        <v>110303</v>
+      </c>
+      <c r="C17" t="n">
+        <v>352.85</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3112025</v>
+      </c>
+      <c r="B18" t="n">
+        <v>110304</v>
+      </c>
+      <c r="C18" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3112025</v>
+      </c>
+      <c r="B19" t="n">
+        <v>110305</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1207.83</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3112025</v>
+      </c>
+      <c r="B20" t="n">
+        <v>110306</v>
+      </c>
+      <c r="C20" t="n">
+        <v>211.47</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3112025</v>
+      </c>
+      <c r="B21" t="n">
+        <v>68759017027</v>
+      </c>
+      <c r="C21" t="n">
+        <v>9</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>APLIC BB EMPRESARIAL 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3112025</v>
+      </c>
+      <c r="B22" t="n">
+        <v>813070700044990</v>
+      </c>
+      <c r="C22" t="n">
+        <v>15</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Telefone Pre-Pago</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3112025</v>
+      </c>
+      <c r="B23" t="n">
+        <v>12061926</v>
+      </c>
+      <c r="C23" t="n">
+        <v>401.29</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Aplicação em BB CDB DI</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3112025</v>
+      </c>
+      <c r="B24" t="n">
+        <v>391100702</v>
+      </c>
+      <c r="C24" t="n">
+        <v>28.69</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Aplicação em BB Cambial</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3112025</v>
+      </c>
+      <c r="B25" t="n">
+        <v>9903</v>
+      </c>
+      <c r="C25" t="n">
+        <v>986.64</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>BB Rende Fácil</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3112025</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Saldo do dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>4112025</v>
+      </c>
+      <c r="B27" t="n">
+        <v>33822659</v>
+      </c>
+      <c r="C27" t="n">
+        <v>70</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Crédito BACEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>4112025</v>
+      </c>
+      <c r="B28" t="n">
+        <v>40912434722181</v>
+      </c>
+      <c r="C28" t="n">
+        <v>170</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>4112025</v>
+      </c>
+      <c r="B29" t="n">
+        <v>41556315205041</v>
+      </c>
+      <c r="C29" t="n">
+        <v>188</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>4112025</v>
+      </c>
+      <c r="B30" t="n">
+        <v>41724194350872</v>
+      </c>
+      <c r="C30" t="n">
+        <v>140</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>4112025</v>
+      </c>
+      <c r="B31" t="n">
+        <v>41745365753261</v>
+      </c>
+      <c r="C31" t="n">
+        <v>48</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>4112025</v>
+      </c>
+      <c r="B32" t="n">
+        <v>145606</v>
+      </c>
+      <c r="C32" t="n">
+        <v>29.62</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Sindicato</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>4112025</v>
+      </c>
+      <c r="B33" t="n">
+        <v>41225530926175</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>4112025</v>
+      </c>
+      <c r="B34" t="n">
+        <v>220551510073139</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2596.3</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>PROAGRO COOPERATIVAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>4112025</v>
+      </c>
+      <c r="B35" t="n">
+        <v>223283000037190</v>
+      </c>
+      <c r="C35" t="n">
+        <v>120</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Débito Autorizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>4112025</v>
+      </c>
+      <c r="B36" t="n">
+        <v>110401</v>
+      </c>
+      <c r="C36" t="n">
+        <v>28</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Pagamento Cheque TB</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>4112025</v>
+      </c>
+      <c r="B37" t="n">
+        <v>110402</v>
+      </c>
+      <c r="C37" t="n">
+        <v>50</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Pagamento Cheque TB</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>4112025</v>
+      </c>
+      <c r="B38" t="n">
+        <v>9903</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1987.48</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>BB Rende Fácil</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>4112025</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1220.44</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Saldo do dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>5112025</v>
+      </c>
+      <c r="B40" t="n">
+        <v>182357</v>
+      </c>
+      <c r="C40" t="n">
+        <v>222.37</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Resgate Fundo Private</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>5112025</v>
+      </c>
+      <c r="B41" t="n">
+        <v>223283000037190</v>
+      </c>
+      <c r="C41" t="n">
+        <v>214</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Débito Autorizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>5112025</v>
+      </c>
+      <c r="B42" t="n">
+        <v>110501</v>
+      </c>
+      <c r="C42" t="n">
+        <v>20</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>5112025</v>
+      </c>
+      <c r="B43" t="n">
+        <v>110502</v>
+      </c>
+      <c r="C43" t="n">
+        <v>115</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>5112025</v>
+      </c>
+      <c r="B44" t="n">
+        <v>110503</v>
+      </c>
+      <c r="C44" t="n">
+        <v>78</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Pagamento Cheque TB</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>5112025</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1425.07</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Saldo do dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>6112025</v>
+      </c>
+      <c r="B46" t="n">
+        <v>550551000093342</v>
+      </c>
+      <c r="C46" t="n">
+        <v>688</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Seguro Penhor Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>6112025</v>
+      </c>
+      <c r="B47" t="n">
+        <v>400580602</v>
+      </c>
+      <c r="C47" t="n">
+        <v>984</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Crédito BACEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>6112025</v>
+      </c>
+      <c r="B48" t="n">
+        <v>61033207385041</v>
+      </c>
+      <c r="C48" t="n">
+        <v>110</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>6112025</v>
+      </c>
+      <c r="B49" t="n">
+        <v>61040405939712</v>
+      </c>
+      <c r="C49" t="n">
+        <v>788</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>6112025</v>
+      </c>
+      <c r="B50" t="n">
+        <v>61223322848762</v>
+      </c>
+      <c r="C50" t="n">
+        <v>178</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>6112025</v>
+      </c>
+      <c r="B51" t="n">
+        <v>61344198317562</v>
+      </c>
+      <c r="C51" t="n">
+        <v>148</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>6112025</v>
+      </c>
+      <c r="B52" t="n">
+        <v>61442327319161</v>
+      </c>
+      <c r="C52" t="n">
+        <v>70</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>6112025</v>
+      </c>
+      <c r="B53" t="n">
+        <v>61708389415702</v>
+      </c>
+      <c r="C53" t="n">
+        <v>55</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>6112025</v>
+      </c>
+      <c r="B54" t="n">
+        <v>61738400711021</v>
+      </c>
+      <c r="C54" t="n">
+        <v>244</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>6112025</v>
+      </c>
+      <c r="B55" t="n">
+        <v>144431</v>
+      </c>
+      <c r="C55" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Sindicato</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>6112025</v>
+      </c>
+      <c r="B56" t="n">
+        <v>254262</v>
+      </c>
+      <c r="C56" t="n">
+        <v>27</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Sindicato</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>6112025</v>
+      </c>
+      <c r="B57" t="n">
+        <v>223283000037190</v>
+      </c>
+      <c r="C57" t="n">
+        <v>137.5</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Débito Autorizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>6112025</v>
+      </c>
+      <c r="B58" t="n">
+        <v>110601</v>
+      </c>
+      <c r="C58" t="n">
+        <v>61</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Pagamento Cheque TB</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>6112025</v>
+      </c>
+      <c r="B59" t="n">
+        <v>9903</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1450.53</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>BB Rende Fácil</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>6112025</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Saldo do dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>7112025</v>
+      </c>
+      <c r="B61" t="n">
+        <v>70858295664012</v>
+      </c>
+      <c r="C61" t="n">
+        <v>160</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>7112025</v>
+      </c>
+      <c r="B62" t="n">
+        <v>71026049941781</v>
+      </c>
+      <c r="C62" t="n">
+        <v>90</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>7112025</v>
+      </c>
+      <c r="B63" t="n">
+        <v>71128538677922</v>
+      </c>
+      <c r="C63" t="n">
+        <v>40</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>7112025</v>
+      </c>
+      <c r="B64" t="n">
+        <v>71547447915601</v>
+      </c>
+      <c r="C64" t="n">
+        <v>80</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>7112025</v>
+      </c>
+      <c r="B65" t="n">
+        <v>143531</v>
+      </c>
+      <c r="C65" t="n">
+        <v>240</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Sindicato</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>7112025</v>
+      </c>
+      <c r="B66" t="n">
+        <v>253257</v>
+      </c>
+      <c r="C66" t="n">
+        <v>16.41</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Sindicato</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>7112025</v>
+      </c>
+      <c r="B67" t="n">
+        <v>71213160926175</v>
+      </c>
+      <c r="C67" t="n">
+        <v>100</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>7112025</v>
+      </c>
+      <c r="B68" t="n">
+        <v>71215240926175</v>
+      </c>
+      <c r="C68" t="n">
+        <v>100</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>7112025</v>
+      </c>
+      <c r="B69" t="n">
+        <v>223283000037190</v>
+      </c>
+      <c r="C69" t="n">
+        <v>120</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Débito Autorizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>7112025</v>
+      </c>
+      <c r="B70" t="n">
+        <v>9903</v>
+      </c>
+      <c r="C70" t="n">
+        <v>206.41</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>BB Rende Fácil</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>7112025</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Saldo do dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>101559044990682</v>
+      </c>
+      <c r="C72" t="n">
+        <v>220</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>101639142172462</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1354</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>149388</v>
+      </c>
+      <c r="C74" t="n">
+        <v>99.95999999999999</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Sindicato</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>91222460926175</v>
+      </c>
+      <c r="C75" t="n">
+        <v>200</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>220551000136256</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2511.53</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Débito Autorizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>223283000037190</v>
+      </c>
+      <c r="C77" t="n">
+        <v>251</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Débito Autorizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>111001</v>
+      </c>
+      <c r="C78" t="n">
+        <v>40</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Pagamento Cheque TB</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>111002</v>
+      </c>
+      <c r="C79" t="n">
+        <v>69.89</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Transfer.conta centraliz.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>111003</v>
+      </c>
+      <c r="C80" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Transfer.conta centraliz.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>111004</v>
+      </c>
+      <c r="C81" t="n">
+        <v>69.44</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Transfer.conta centraliz.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>111005</v>
+      </c>
+      <c r="C82" t="n">
+        <v>351</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>111006</v>
+      </c>
+      <c r="C83" t="n">
+        <v>40</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>111007</v>
+      </c>
+      <c r="C84" t="n">
+        <v>100</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>111008</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1563.56</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>9903</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1244.15</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>BB Rende Fácil</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2538.13</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Saldo do dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>111141530514782</v>
+      </c>
+      <c r="C88" t="n">
+        <v>809</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>111511286757092</v>
+      </c>
+      <c r="C89" t="n">
+        <v>80</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>111603179469722</v>
+      </c>
+      <c r="C90" t="n">
+        <v>80</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>162644</v>
+      </c>
+      <c r="C91" t="n">
+        <v>7</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Sindicato</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>223283000037190</v>
+      </c>
+      <c r="C92" t="n">
+        <v>249</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Débito Autorizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>111101</v>
+      </c>
+      <c r="C93" t="n">
+        <v>28</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Pagamento Cheque TB</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>111102</v>
+      </c>
+      <c r="C94" t="n">
+        <v>25</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Pagamento Cheque TB</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1878.13</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Saldo do dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>121029264348411</v>
+      </c>
+      <c r="C96" t="n">
+        <v>70</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>121101552621801</v>
+      </c>
+      <c r="C97" t="n">
+        <v>90</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>121718003609062</v>
+      </c>
+      <c r="C98" t="n">
+        <v>70</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>147571</v>
+      </c>
+      <c r="C99" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Sindicato</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>220551000026501</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2534.4</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Débito Autorizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>4189.39</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Saldo do dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>13/11/2025</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>33629106</v>
+      </c>
+      <c r="C102" t="n">
+        <v>428</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Crédito BACEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>13/11/2025</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>131130502766782</v>
+      </c>
+      <c r="C103" t="n">
+        <v>70</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>13/11/2025</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>131643289195622</v>
+      </c>
+      <c r="C104" t="n">
+        <v>98</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>13/11/2025</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>144329</v>
+      </c>
+      <c r="C105" t="n">
+        <v>178.75</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Sindicato</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>13/11/2025</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>111301</v>
+      </c>
+      <c r="C106" t="n">
+        <v>293.71</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>13/11/2025</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>68759017027</v>
+      </c>
+      <c r="C107" t="n">
+        <v>27</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>APLIC BB EMPRESARIAL 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>13/11/2025</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>4092.85</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Saldo do dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>14/11/2025</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>550551000093342</v>
+      </c>
+      <c r="C109" t="n">
+        <v>70</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Seguro Penhor Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>14/11/2025</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>140805451681131</v>
+      </c>
+      <c r="C110" t="n">
+        <v>398</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>14/11/2025</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>141041430628391</v>
+      </c>
+      <c r="C111" t="n">
+        <v>48</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>14/11/2025</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>141127523374851</v>
+      </c>
+      <c r="C112" t="n">
+        <v>258</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>14/11/2025</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>141201401483221</v>
+      </c>
+      <c r="C113" t="n">
+        <v>38</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>14/11/2025</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>141408171764511</v>
+      </c>
+      <c r="C114" t="n">
+        <v>224</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>14/11/2025</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>153905</v>
+      </c>
+      <c r="C115" t="n">
+        <v>26.62</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Sindicato</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>14/11/2025</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>259850</v>
+      </c>
+      <c r="C116" t="n">
+        <v>25</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Sindicato</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>14/11/2025</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>371747</v>
+      </c>
+      <c r="C117" t="n">
+        <v>57</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Sindicato</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>14/11/2025</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>141204110926175</v>
+      </c>
+      <c r="C118" t="n">
+        <v>100</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>14/11/2025</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>141207190926175</v>
+      </c>
+      <c r="C119" t="n">
+        <v>100</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>14/11/2025</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>111401</v>
+      </c>
+      <c r="C120" t="n">
+        <v>676.35</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>14/11/2025</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>111402</v>
+      </c>
+      <c r="C121" t="n">
+        <v>177.38</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>14/11/2025</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>4219.2</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Saldo do dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>553283000004987</v>
+      </c>
+      <c r="C123" t="n">
+        <v>198</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Seguro Penhor Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1750</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Resgate Fundo Private</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>33708772</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1646.31</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Crédito BACEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>34993053</v>
+      </c>
+      <c r="C126" t="n">
+        <v>218</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Crédito BACEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>170930525211361</v>
+      </c>
+      <c r="C127" t="n">
+        <v>288</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>171135555344651</v>
+      </c>
+      <c r="C128" t="n">
+        <v>90</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>171410510696131</v>
+      </c>
+      <c r="C129" t="n">
+        <v>240</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>171621026445972</v>
+      </c>
+      <c r="C130" t="n">
+        <v>70</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>150138</v>
+      </c>
+      <c r="C131" t="n">
+        <v>199.49</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Sindicato</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>264331</v>
+      </c>
+      <c r="C132" t="n">
+        <v>56.25</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Sindicato</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>161250490926175</v>
+      </c>
+      <c r="C133" t="n">
+        <v>200</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>223283000037190</v>
+      </c>
+      <c r="C134" t="n">
+        <v>568</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Débito Autorizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>111701</v>
+      </c>
+      <c r="C135" t="n">
+        <v>352.85</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>111702</v>
+      </c>
+      <c r="C136" t="n">
+        <v>216</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>833211100628549</v>
+      </c>
+      <c r="C137" t="n">
+        <v>232.3</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Emissão de DOC</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1543.78</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Saldo do dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>18/11/2025</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>180846419045891</v>
+      </c>
+      <c r="C139" t="n">
+        <v>140</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>18/11/2025</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>180949473005511</v>
+      </c>
+      <c r="C140" t="n">
+        <v>200</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>18/11/2025</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>181054562051212</v>
+      </c>
+      <c r="C141" t="n">
+        <v>80</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>18/11/2025</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>181242471699462</v>
+      </c>
+      <c r="C142" t="n">
+        <v>40</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>18/11/2025</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>181403259134321</v>
+      </c>
+      <c r="C143" t="n">
+        <v>168</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>18/11/2025</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>181550086000392</v>
+      </c>
+      <c r="C144" t="n">
+        <v>80</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>18/11/2025</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>181628388096811</v>
+      </c>
+      <c r="C145" t="n">
+        <v>128</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>18/11/2025</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>220551000026578</v>
+      </c>
+      <c r="C146" t="n">
+        <v>350</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Débito Autorizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>18/11/2025</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>220551000073147</v>
+      </c>
+      <c r="C147" t="n">
+        <v>300</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Débito Autorizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>18/11/2025</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>223283000037190</v>
+      </c>
+      <c r="C148" t="n">
+        <v>256</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Débito Autorizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>18/11/2025</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>111801</v>
+      </c>
+      <c r="C149" t="n">
+        <v>28</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Pagamento Cheque TB</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>18/11/2025</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>111802</v>
+      </c>
+      <c r="C150" t="n">
+        <v>695</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Pagamento Cheque TB</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>18/11/2025</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>111803</v>
+      </c>
+      <c r="C151" t="n">
+        <v>375.11</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>18/11/2025</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>111804</v>
+      </c>
+      <c r="C152" t="n">
+        <v>322.02</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Débito Autorizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>18/11/2025</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>111805</v>
+      </c>
+      <c r="C153" t="n">
+        <v>50</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Pagamento Cheque TB</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>18/11/2025</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>3083.91</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Saldo do dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1750</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Resgate Fundo Private</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>401882930</v>
+      </c>
+      <c r="C156" t="n">
+        <v>160.86</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Crédito BACEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>55128072000001</v>
+      </c>
+      <c r="C157" t="n">
+        <v>15000</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Liquidação</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>191428059799811</v>
+      </c>
+      <c r="C158" t="n">
+        <v>70</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>191718277616961</v>
+      </c>
+      <c r="C159" t="n">
+        <v>170</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>167617</v>
+      </c>
+      <c r="C160" t="n">
+        <v>15.28</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Sindicato</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>223283000037190</v>
+      </c>
+      <c r="C161" t="n">
+        <v>260</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Débito Autorizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>55128072000003</v>
+      </c>
+      <c r="C162" t="n">
+        <v>487.21</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Diário</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>111901</v>
+      </c>
+      <c r="C163" t="n">
+        <v>805.5</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Pagamento Cheque TB</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>111902</v>
+      </c>
+      <c r="C164" t="n">
+        <v>816.15</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Saldo Transferido</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>111903</v>
+      </c>
+      <c r="C165" t="n">
+        <v>208</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>AQUISICAO CTN PESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>9903</v>
+      </c>
+      <c r="C166" t="n">
+        <v>11474.81</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>BB Rende Fácil</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>0</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Saldo do dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>402027250</v>
+      </c>
+      <c r="C168" t="n">
+        <v>207.65</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Crédito BACEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>211251305819672</v>
+      </c>
+      <c r="C169" t="n">
+        <v>160</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>211444332483982</v>
+      </c>
+      <c r="C170" t="n">
+        <v>150</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>211551122974021</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>211638297633762</v>
+      </c>
+      <c r="C172" t="n">
+        <v>606</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>211700410558522</v>
+      </c>
+      <c r="C173" t="n">
+        <v>30</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>DRC-CREDITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>160702</v>
+      </c>
+      <c r="C174" t="n">
+        <v>169.75</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Sindicato</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>272664</v>
+      </c>
+      <c r="C175" t="n">
+        <v>57</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Sindicato</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>352897</v>
+      </c>
+      <c r="C176" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Sindicato</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>211247240926175</v>
+      </c>
+      <c r="C177" t="n">
+        <v>100</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>211252140926175</v>
+      </c>
+      <c r="C178" t="n">
+        <v>100</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>220551000056347</v>
+      </c>
+      <c r="C179" t="n">
+        <v>88</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Débito Autorizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>223283000037190</v>
+      </c>
+      <c r="C180" t="n">
+        <v>126</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Débito Autorizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>112101</v>
+      </c>
+      <c r="C181" t="n">
+        <v>110</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Pagamento Cheque TB</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>112102</v>
+      </c>
+      <c r="C182" t="n">
+        <v>119.99</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Transfer.conta centraliz.</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>112103</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2253.3</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Saldo Transferido</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>112104</v>
+      </c>
+      <c r="C184" t="n">
+        <v>127.89</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Pagamento Cheque TB</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>68759017027</v>
+      </c>
+      <c r="C185" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>APLIC BB EMPRESARIAL 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>98065741</v>
+      </c>
+      <c r="C186" t="n">
+        <v>3</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Aplicação em BB CDB DI</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>9903</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1139.77</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>BB Rende Fácil</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>0</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Saldo do dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>55122963000477</v>
+      </c>
+      <c r="C189" t="n">
+        <v>578.24</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>BB GIRO PRONAMPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>9903</v>
+      </c>
+      <c r="C190" t="n">
+        <v>578.24</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>BB Rende Fácil</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>0</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Saldo do dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>68759017027</v>
+      </c>
+      <c r="C192" t="n">
+        <v>9</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Débito Serviço Cobrança</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>883290900023677</v>
+      </c>
+      <c r="C193" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Tarifa MSG - Mês Anterior</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>9903</v>
+      </c>
+      <c r="C194" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>BB Rende Fácil</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>0</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Saldo do dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>261652306445982</v>
+      </c>
+      <c r="C196" t="n">
+        <v>3</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Pix - Recebido</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>261656439904392</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Pix - Recebido</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>9903</v>
+      </c>
+      <c r="C198" t="n">
+        <v>4</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>BB Rende Fácil</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>0</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Saldo do dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>27/11/2025</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>271459408418842</v>
+      </c>
+      <c r="C200" t="n">
+        <v>3</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Pix - Recebido</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>27/11/2025</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>9903</v>
+      </c>
+      <c r="C201" t="n">
+        <v>3</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>BB Rende Fácil</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>27/11/2025</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>0</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Saldo do dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>28/11/2025</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>280531204357442</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Pix - Recebido</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>28/11/2025</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>280947136406982</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Pix - Recebido</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>28/11/2025</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>281019054263851</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Pix - Recebido</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>28/11/2025</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>281058086924242</v>
+      </c>
+      <c r="C206" t="n">
+        <v>20</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Pix - Recebido</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>28/11/2025</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>281113525978142</v>
+      </c>
+      <c r="C207" t="n">
+        <v>50</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Pix - Recebido</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>28/11/2025</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>511057327</v>
+      </c>
+      <c r="C208" t="n">
+        <v>160.97</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Cobrança de Juros</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>28/11/2025</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>9903</v>
+      </c>
+      <c r="C209" t="n">
+        <v>88.95999999999999</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>BB Rende Fácil</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>28/11/2025</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>0</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Saldo do dia</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>1122025</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0</v>
+      </c>
+      <c r="C211" t="n">
+        <v>32.85</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Encargos</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>1122025</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0</v>
+      </c>
+      <c r="C212" t="n">
+        <v>32.85</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>S A L D O</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>1122025</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0</v>
+      </c>
+      <c r="C213" t="n">
+        <v>100.72</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>TARIFA SER</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -564,8 +4278,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>31102025</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>31/10/2025</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1012,8 +4728,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>10112025</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
       </c>
       <c r="B30" t="n">
         <v>5811587000000</v>
@@ -1028,8 +4746,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>10112025</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
       </c>
       <c r="B31" t="n">
         <v>113141000003677</v>
@@ -1044,8 +4764,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>10112025</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
       </c>
       <c r="B32" t="n">
         <v>111001</v>
@@ -1060,8 +4782,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>10112025</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
       </c>
       <c r="B33" t="n">
         <v>111002</v>
@@ -1076,8 +4800,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>10112025</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
       </c>
       <c r="B34" t="n">
         <v>111003</v>
@@ -1092,8 +4818,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>10112025</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
       </c>
       <c r="B35" t="n">
         <v>111004</v>
@@ -1108,8 +4836,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>10112025</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
       </c>
       <c r="B36" t="n">
         <v>111005</v>
@@ -1124,8 +4854,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>10112025</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
       </c>
       <c r="B37" t="n">
         <v>31</v>
@@ -1140,8 +4872,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>10112025</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
       </c>
       <c r="B38" t="n">
         <v>1005568017027</v>
@@ -1156,8 +4890,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>10112025</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
       </c>
       <c r="B39" t="n">
         <v>833141102982263</v>
@@ -1172,8 +4908,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>10112025</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
       </c>
       <c r="B40" t="n">
         <v>102863411</v>
@@ -1188,8 +4926,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>10112025</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -1204,8 +4944,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>11112025</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
       </c>
       <c r="B42" t="n">
         <v>111856310739681</v>
@@ -1220,8 +4962,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>11112025</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
       </c>
       <c r="B43" t="n">
         <v>113151000001783</v>
@@ -1236,8 +4980,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>11112025</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
       </c>
       <c r="B44" t="n">
         <v>111101</v>
@@ -1252,8 +4998,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>11112025</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
       </c>
       <c r="B45" t="n">
         <v>111102</v>
@@ -1268,8 +5016,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>11112025</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
       </c>
       <c r="B46" t="n">
         <v>111103</v>
@@ -1284,8 +5034,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>11112025</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
       </c>
       <c r="B47" t="n">
         <v>111104</v>
@@ -1300,8 +5052,10 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>11112025</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
       </c>
       <c r="B48" t="n">
         <v>111105</v>
@@ -1316,8 +5070,10 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>11112025</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
       </c>
       <c r="B49" t="n">
         <v>111106</v>
@@ -1332,8 +5088,10 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>11112025</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
       </c>
       <c r="B50" t="n">
         <v>111107</v>
@@ -1348,8 +5106,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>11112025</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
       </c>
       <c r="B51" t="n">
         <v>111108</v>
@@ -1364,8 +5124,10 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>11112025</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
       </c>
       <c r="B52" t="n">
         <v>111109</v>
@@ -1380,8 +5142,10 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>11112025</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
       </c>
       <c r="B53" t="n">
         <v>111110</v>
@@ -1396,8 +5160,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>11112025</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
       </c>
       <c r="B54" t="n">
         <v>111111</v>
@@ -1412,8 +5178,10 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>11112025</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
       </c>
       <c r="B55" t="n">
         <v>111112</v>
@@ -1428,8 +5196,10 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>11112025</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
       </c>
       <c r="B56" t="n">
         <v>111113</v>
@@ -1444,8 +5214,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>11112025</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
       </c>
       <c r="B57" t="n">
         <v>111114</v>
@@ -1460,8 +5232,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>11112025</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
       </c>
       <c r="B58" t="n">
         <v>111115</v>
@@ -1476,8 +5250,10 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>11112025</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
       </c>
       <c r="B59" t="n">
         <v>111116</v>
@@ -1492,8 +5268,10 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>11112025</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
       </c>
       <c r="B60" t="n">
         <v>111117</v>
@@ -1508,8 +5286,10 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>11112025</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
       </c>
       <c r="B61" t="n">
         <v>111118</v>
@@ -1524,8 +5304,10 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>11112025</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
       </c>
       <c r="B62" t="n">
         <v>111119</v>
@@ -1540,8 +5322,10 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>11112025</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
       </c>
       <c r="B63" t="n">
         <v>111120</v>
@@ -1556,8 +5340,10 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>11112025</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
       </c>
       <c r="B64" t="n">
         <v>1005568017027</v>
@@ -1572,8 +5358,10 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>11112025</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
       </c>
       <c r="B65" t="n">
         <v>1005568017027</v>
@@ -1588,8 +5376,10 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>11112025</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
       </c>
       <c r="B66" t="n">
         <v>16551</v>
@@ -1604,8 +5394,10 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>11112025</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -1620,8 +5412,10 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>12112025</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
       </c>
       <c r="B68" t="n">
         <v>33395809</v>
@@ -1636,8 +5430,10 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>12112025</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
       </c>
       <c r="B69" t="n">
         <v>33564279</v>
@@ -1652,8 +5448,10 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>12112025</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
       </c>
       <c r="B70" t="n">
         <v>5888039000000</v>
@@ -1668,8 +5466,10 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>12112025</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
       </c>
       <c r="B71" t="n">
         <v>113161000001973</v>
@@ -1684,8 +5484,10 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
-        <v>12112025</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
       </c>
       <c r="B72" t="n">
         <v>121600383555452</v>
@@ -1700,8 +5502,10 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>12112025</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
       </c>
       <c r="B73" t="n">
         <v>111201</v>
@@ -1716,8 +5520,10 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>12112025</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
       </c>
       <c r="B74" t="n">
         <v>111202</v>
@@ -1732,8 +5538,10 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>12112025</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
       </c>
       <c r="B75" t="n">
         <v>111203</v>
@@ -1748,8 +5556,10 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>12112025</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
       </c>
       <c r="B76" t="n">
         <v>111204</v>
@@ -1764,8 +5574,10 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>12112025</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
       </c>
       <c r="B77" t="n">
         <v>111205</v>
@@ -1780,8 +5592,10 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
-        <v>12112025</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
       </c>
       <c r="B78" t="n">
         <v>111206</v>
@@ -1796,8 +5610,10 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>12112025</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
       </c>
       <c r="B79" t="n">
         <v>1005568017027</v>
@@ -1812,8 +5628,10 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
-        <v>12112025</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
       </c>
       <c r="B80" t="n">
         <v>0</v>
@@ -1828,8 +5646,10 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
-        <v>13112025</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>13/11/2025</t>
+        </is>
       </c>
       <c r="B81" t="n">
         <v>113171000001891</v>
@@ -1844,8 +5664,10 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>13112025</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>13/11/2025</t>
+        </is>
       </c>
       <c r="B82" t="n">
         <v>111301</v>
@@ -1860,8 +5682,10 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
-        <v>13112025</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>13/11/2025</t>
+        </is>
       </c>
       <c r="B83" t="n">
         <v>111302</v>
@@ -1876,8 +5700,10 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
-        <v>13112025</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>13/11/2025</t>
+        </is>
       </c>
       <c r="B84" t="n">
         <v>111303</v>
@@ -1892,8 +5718,10 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>13112025</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>13/11/2025</t>
+        </is>
       </c>
       <c r="B85" t="n">
         <v>1005568017027</v>
@@ -1908,8 +5736,10 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
-        <v>13112025</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>13/11/2025</t>
+        </is>
       </c>
       <c r="B86" t="n">
         <v>12695</v>
@@ -1924,8 +5754,10 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
-        <v>13112025</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>13/11/2025</t>
+        </is>
       </c>
       <c r="B87" t="n">
         <v>0</v>
@@ -1940,8 +5772,10 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>14112025</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>14/11/2025</t>
+        </is>
       </c>
       <c r="B88" t="n">
         <v>111401</v>
@@ -1956,8 +5790,10 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
-        <v>14112025</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>14/11/2025</t>
+        </is>
       </c>
       <c r="B89" t="n">
         <v>111402</v>
@@ -1972,8 +5808,10 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
-        <v>14112025</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>14/11/2025</t>
+        </is>
       </c>
       <c r="B90" t="n">
         <v>1005568017027</v>
@@ -1988,8 +5826,10 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>14112025</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>14/11/2025</t>
+        </is>
       </c>
       <c r="B91" t="n">
         <v>0</v>
@@ -2004,8 +5844,10 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
-        <v>17112025</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
       </c>
       <c r="B92" t="n">
         <v>113211000001797</v>
@@ -2020,8 +5862,10 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
-        <v>17112025</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
       </c>
       <c r="B93" t="n">
         <v>1005568017027</v>
@@ -2036,8 +5880,10 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
-        <v>17112025</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>17/11/2025</t>
+        </is>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -2052,8 +5898,10 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
-        <v>18112025</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>18/11/2025</t>
+        </is>
       </c>
       <c r="B95" t="n">
         <v>5995126000000</v>
@@ -2068,8 +5916,10 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
-        <v>18112025</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>18/11/2025</t>
+        </is>
       </c>
       <c r="B96" t="n">
         <v>113221000003257</v>
@@ -2084,8 +5934,10 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
-        <v>18112025</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>18/11/2025</t>
+        </is>
       </c>
       <c r="B97" t="n">
         <v>111801</v>
@@ -2100,8 +5952,10 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
-        <v>18112025</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>18/11/2025</t>
+        </is>
       </c>
       <c r="B98" t="n">
         <v>111802</v>
@@ -2116,8 +5970,10 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
-        <v>18112025</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>18/11/2025</t>
+        </is>
       </c>
       <c r="B99" t="n">
         <v>111803</v>
@@ -2132,8 +5988,10 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
-        <v>18112025</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>18/11/2025</t>
+        </is>
       </c>
       <c r="B100" t="n">
         <v>111804</v>
@@ -2148,8 +6006,10 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
-        <v>18112025</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>18/11/2025</t>
+        </is>
       </c>
       <c r="B101" t="n">
         <v>111805</v>
@@ -2164,8 +6024,10 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
-        <v>18112025</v>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>18/11/2025</t>
+        </is>
       </c>
       <c r="B102" t="n">
         <v>111806</v>
@@ -2180,8 +6042,10 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="n">
-        <v>18112025</v>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>18/11/2025</t>
+        </is>
       </c>
       <c r="B103" t="n">
         <v>1005568017027</v>
@@ -2196,8 +6060,10 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
-        <v>18112025</v>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>18/11/2025</t>
+        </is>
       </c>
       <c r="B104" t="n">
         <v>1005568017027</v>
@@ -2212,8 +6078,10 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
-        <v>18112025</v>
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>18/11/2025</t>
+        </is>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -2228,8 +6096,10 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="n">
-        <v>19112025</v>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
       </c>
       <c r="B106" t="n">
         <v>254103</v>
@@ -2244,8 +6114,10 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
-        <v>19112025</v>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
       </c>
       <c r="B107" t="n">
         <v>6028133000000</v>
@@ -2260,8 +6132,10 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="n">
-        <v>19112025</v>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
       </c>
       <c r="B108" t="n">
         <v>6051071000000</v>
@@ -2276,8 +6150,10 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n">
-        <v>19112025</v>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
       </c>
       <c r="B109" t="n">
         <v>113231000003252</v>
@@ -2292,8 +6168,10 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
-        <v>19112025</v>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
       </c>
       <c r="B110" t="n">
         <v>550452000049539</v>
@@ -2308,8 +6186,10 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
-        <v>19112025</v>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
       </c>
       <c r="B111" t="n">
         <v>1005568017027</v>
@@ -2324,8 +6204,10 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
-        <v>19112025</v>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -2340,8 +6222,10 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
-        <v>21112025</v>
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
       </c>
       <c r="B113" t="n">
         <v>550452000049539</v>
@@ -2356,8 +6240,10 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
-        <v>21112025</v>
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
       </c>
       <c r="B114" t="n">
         <v>6065208000000</v>
@@ -2372,8 +6258,10 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
-        <v>21112025</v>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
       </c>
       <c r="B115" t="n">
         <v>6065209000000</v>
@@ -2388,8 +6276,10 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
-        <v>21112025</v>
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
       </c>
       <c r="B116" t="n">
         <v>45215916000432</v>
@@ -2404,8 +6294,10 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
-        <v>21112025</v>
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -2420,8 +6312,10 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
-        <v>24112025</v>
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
       </c>
       <c r="B118" t="n">
         <v>113281000000059</v>
@@ -2436,8 +6330,10 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
-        <v>24112025</v>
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
       </c>
       <c r="B119" t="n">
         <v>1005568017027</v>
@@ -2452,8 +6348,10 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
-        <v>24112025</v>
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -2468,8 +6366,10 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
-        <v>25112025</v>
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
       </c>
       <c r="B121" t="n">
         <v>113291000000021</v>
@@ -2484,8 +6384,10 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
-        <v>25112025</v>
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
       </c>
       <c r="B122" t="n">
         <v>113291100000014</v>
@@ -2500,8 +6402,10 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
-        <v>25112025</v>
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
       </c>
       <c r="B123" t="n">
         <v>45220216000140</v>
@@ -2516,8 +6420,10 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
-        <v>25112025</v>
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
       </c>
       <c r="B124" t="n">
         <v>1005568017027</v>
@@ -2532,8 +6438,10 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
-        <v>25112025</v>
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
       </c>
       <c r="B125" t="n">
         <v>16551</v>
@@ -2548,8 +6456,10 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
-        <v>25112025</v>
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -2564,8 +6474,10 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
-        <v>26112025</v>
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
       </c>
       <c r="B127" t="n">
         <v>113301000000023</v>
@@ -2580,8 +6492,10 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n">
-        <v>26112025</v>
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
       </c>
       <c r="B128" t="n">
         <v>113301100000031</v>
@@ -2596,8 +6510,10 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
-        <v>26112025</v>
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
       </c>
       <c r="B129" t="n">
         <v>1005568017027</v>
@@ -2612,8 +6528,10 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n">
-        <v>26112025</v>
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -2628,8 +6546,10 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
-        <v>27112025</v>
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>27/11/2025</t>
+        </is>
       </c>
       <c r="B131" t="n">
         <v>113311000000025</v>
@@ -2644,8 +6564,10 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
-        <v>27112025</v>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>27/11/2025</t>
+        </is>
       </c>
       <c r="B132" t="n">
         <v>113311100000033</v>
@@ -2660,8 +6582,10 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
-        <v>27112025</v>
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>27/11/2025</t>
+        </is>
       </c>
       <c r="B133" t="n">
         <v>1005568017027</v>
@@ -2676,8 +6600,10 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="n">
-        <v>27112025</v>
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>27/11/2025</t>
+        </is>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -2692,8 +6618,10 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
-        <v>28112025</v>
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>28/11/2025</t>
+        </is>
       </c>
       <c r="B135" t="n">
         <v>113321000000028</v>
@@ -2708,8 +6636,10 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n">
-        <v>28112025</v>
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>28/11/2025</t>
+        </is>
       </c>
       <c r="B136" t="n">
         <v>113321100000018</v>
@@ -2724,8 +6654,10 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="n">
-        <v>28112025</v>
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>28/11/2025</t>
+        </is>
       </c>
       <c r="B137" t="n">
         <v>26116</v>
@@ -2740,8 +6672,10 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="n">
-        <v>28112025</v>
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>28/11/2025</t>
+        </is>
       </c>
       <c r="B138" t="n">
         <v>26117</v>
@@ -2756,8 +6690,10 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
-        <v>28112025</v>
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>28/11/2025</t>
+        </is>
       </c>
       <c r="B139" t="n">
         <v>26118</v>
@@ -2772,8 +6708,10 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
-        <v>28112025</v>
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>28/11/2025</t>
+        </is>
       </c>
       <c r="B140" t="n">
         <v>45219528000304</v>
@@ -2788,8 +6726,10 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n">
-        <v>28112025</v>
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>28/11/2025</t>
+        </is>
       </c>
       <c r="B141" t="n">
         <v>0</v>
